--- a/Data/Text extracts_all.xlsx
+++ b/Data/Text extracts_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\CL\AI as Catalyst in DH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea\Dropbox\Uni\Charting New Realms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D429A94-9752-4BC2-B3B7-BAEF9EAC6058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B921569-D1B1-44EA-A96D-8F1187823EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{6362B796-E473-4933-AAD3-298815AEB6AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{6362B796-E473-4933-AAD3-298815AEB6AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
   <si>
     <t>Song</t>
   </si>
@@ -600,6 +600,199 @@
   </si>
   <si>
     <t>Belinus, after this victory, called a council of his nobility, to advise with them what he should do with the king of the Dacians, who had sent a message to him out of prison, that be would submit himself and the kingdom of Dacia to him, and also pay a yearly tribute, if he might have leave to depart with his mistress. He offered likewise to confirm this covenant with an oath, and the giving of hostages. When this proposal was laid before the nobility, they unanimously gave their assent that Belinus should grant Guichthlac his petition upon the terms offered. Accordingly he did grant it, and Guichthlac was released from prison, and returned with his mistress into Dacia.</t>
+  </si>
+  <si>
+    <t>Scriptura Ezechiae, regis Iuda, cum aegrotasset et convaluisset de infirmitate sua.
+Ego dixi in dimidio dierum meorum:
+Vadam ad portas inferi;
+quaesivi residuum annorum meorum.
+Dixi: Non videbo Dominum Deum
+in terra viventium;
+non aspiciam hominem ultra,
+et habitatorem quietis.
+Generatio mea ablata est, et convoluta est a me,
+quasi tabernaculum pastorum.
+Praecisa est velut a texente vita mea;
+dum adhuc ordirer, succidit me:
+de mane usque ad vesperam finies me.
+Sperabam usque ad mane;
+quasi leo, sic contrivit omnia ossa mea:
+de mane usque ad vesperam finies me.
+Sicut pullus hirundinis, sic clamabo;
+meditabor ut columba.
+Attenuati sunt oculi mei, suspicientes in excelsum.
+Domine, vim patior: responde pro me.
+Quid dicam, aut quid respondebit mihi,
+cum ipse fecerit?
+Recogitabo tibi omnes annos meos
+in amaritudine animae meae.
+Domine, si sic vivitur,
+et in talibus vita spiritus mei,
+corripies me, et vivificabis me.
+Ecce in pace amaritudo mea amarissima.
+Tu autem eruisti animam meam
+ut non periret;
+proiecisti post tergum tuum
+omnia peccata mea.
+Quia non infernus confitebitur tibi,
+neque mors laudabit te:
+non exspectabunt qui descendunt in lacum
+veritatem tuam.
+Vivens, vivens ipse confitebitur tibi,
+sicut et ego hodie;
+pater filiis notam faciet
+veritatem tuam.
+Domine, salvum me fac!
+et psalmos nostros cantabimus
+cunctis diebus vitae nostrae
+in domo Domini.</t>
+  </si>
+  <si>
+    <t>Viam fecisti in mari equis tuis,
+in luto aquarum multarum.
+Audivi, et conturbatus est venter meus;
+a voce contremuerunt labia mea.
+Ingrediatur putredo in ossibus meis,
+et subter me scateat:
+ut requiescam in die tribulationis,
+ut ascendam ad populum accinctum nostrum.
+Ficus enim non florebit,
+et non erit germen in vineis;
+mentietur opus olivae,
+et arva non afferent cibum:
+abscindetur de ovili pecus,
+et non erit armentum in praesepibus.
+Ego autem in Domino gaudebo;
+et exsultabo in Deo Iesu meo.
+Deus Dominus fortitudo mea,
+et ponet pedes meos quasi cervorum:
+et super excelsa mea deducet me
+victor in psalmis canentem.</t>
+  </si>
+  <si>
+    <t>Habakkuk 3:17-19
+ESV</t>
+  </si>
+  <si>
+    <t>Habakkuk 3:17-19
+Douay-Rheims 1899
+American Edition</t>
+  </si>
+  <si>
+    <t>Habakkuk 3:17-19
+King James Version</t>
+  </si>
+  <si>
+    <t>Isaiah 38:9-20
+King James Version</t>
+  </si>
+  <si>
+    <t>Isaiah 38:9-20
+ESV</t>
+  </si>
+  <si>
+    <t>Isaiah 38:9-20
+Douay-Rheims 1899 American Edition</t>
+  </si>
+  <si>
+    <t>A writing of Hezekiah king of Judah, after he had been sick and had recovered from his sickness:
+I said, In the middle[a] of my days
+I must depart;
+I am consigned to the gates of Sheol
+for the rest of my years.
+I said, I shall not see the Lord,
+the Lord in the land of the living;
+I shall look on man no more
+among the inhabitants of the world.
+My dwelling is plucked up and removed from me
+like a shepherd's tent;
+like a weaver I have rolled up my life;
+he cuts me off from the loom;
+from day to night you bring me to an end;
+I calmed myself[b] until morning;
+like a lion he breaks all my bones;
+from day to night you bring me to an end.
+Like a swallow or a crane I chirp;
+I moan like a dove.
+My eyes are weary with looking upward.
+O Lord, I am oppressed; be my pledge of safety!
+What shall I say? For he has spoken to me,
+and he himself has done it.
+I walk slowly all my years
+because of the bitterness of my soul.
+O Lord, by these things men live,
+and in all these is the life of my spirit.
+Oh restore me to health and make me live!
+Behold, it was for my welfare
+that I had great bitterness;
+but in love you have delivered my life
+from the pit of destruction,
+for you have cast all my sins
+behind your back.
+For Sheol does not thank you;
+death does not praise you;
+those who go down to the pit do not hope
+for your faithfulness.
+The living, the living, he thanks you,
+as I do this day;
+the father makes known to the children
+your faithfulness.
+The Lord will save me,
+and we will play my music on stringed instruments
+all the days of our lives,
+at the house of the Lord.</t>
+  </si>
+  <si>
+    <t>The writing of Hezekiah king of Judah, when he had been sick, and was recovered of his sickness:
+I said in the cutting off of my days, I shall go to the gates of the grave: I am deprived of the residue of my years.
+I said, I shall not see the Lord, even the Lord, in the land of the living: I shall behold man no more with the inhabitants of the world.
+Mine age is departed, and is removed from me as a shepherd's tent: I have cut off like a weaver my life: he will cut me off with pining sickness: from day even to night wilt thou make an end of me.
+I reckoned till morning, that, as a lion, so will he break all my bones: from day even to night wilt thou make an end of me.
+Like a crane or a swallow, so did I chatter: I did mourn as a dove: mine eyes fail with looking upward: O Lord, I am oppressed; undertake for me.
+What shall I say? he hath both spoken unto me, and himself hath done it: I shall go softly all my years in the bitterness of my soul.
+O Lord, by these things men live, and in all these things is the life of my spirit: so wilt thou recover me, and make me to live.
+Behold, for peace I had great bitterness: but thou hast in love to my soul delivered it from the pit of corruption: for thou hast cast all my sins behind thy back.
+For the grave cannot praise thee, death can not celebrate thee: they that go down into the pit cannot hope for thy truth.
+The living, the living, he shall praise thee, as I do this day: the father to the children shall make known thy truth.
+The Lord was ready to save me: therefore we will sing my songs to the stringed instruments all the days of our life in the house of the Lord.</t>
+  </si>
+  <si>
+    <t>The writing of Ezechias king of Juda, when he had been sick, and was recovered of his sickness.
+I said: In the midst of my days I shall go to the gates of hell: I sought for the residue of my years.
+I said: I shall not see the Lord God in the land of the living. I shall behold man no more, nor the inhabitant of rest.
+My generation is at an end, and it is rolled away from me, as a shepherd's tent. My life is cut off, as by a weaver: whilst I was yet but beginning, he out me off: from morning even to night thou wilt make an end of me.
+I hoped till morning, as a lion so hath he broken all my bones: from morning even to night thou wilt make an end of me.
+I will cry like a young swallow, I will meditate like a dove: my eyes are weakened looking upward: Lord, I suffer violence, answer thou for me.
+What shall I say, or what shall he answer for me, whereas he himself hath done it? I will recount to thee all my years in the bitterness of my soul.
+O Lord, if man's life be such, and the life of my spirit be in such things as these, thou shalt correct me, and make me to live.
+Behold in peace is my bitterness most bitter: but thou hast delivered my soul that it should not perish, thou hast cast all my sins behind thy back.
+For hell shall not confess to thee, neither shall death praise thee: nor shall they that go down into the pit, look for thy truth.
+The living, the living, he shall give praise to thee, as I do this day: the father shall make thy truth known to the children.
+O Lord, save me, and we will sing our psalms all the days of our life in the house of the Lord.</t>
+  </si>
+  <si>
+    <t>Though the fig tree should not blossom,
+nor fruit be on the vines,
+the produce of the olive fail
+and the fields yield no food,
+the flock be cut off from the fold
+and there be no herd in the stalls,
+yet I will rejoice in the Lord;
+I will take joy in the God of my salvation.
+God, the Lord, is my strength;
+he makes my feet like the deer's;
+he makes me tread on my high places.
+To the choirmaster: with stringed[a] instruments.</t>
+  </si>
+  <si>
+    <t>Although the fig tree shall not blossom, neither shall fruit be in the vines; the labour of the olive shall fail, and the fields shall yield no meat; the flock shall be cut off from the fold, and there shall be no herd in the stalls:
+Yet I will rejoice in the Lord, I will joy in the God of my salvation.
+The Lord God is my strength, and he will make my feet like hinds' feet, and he will make me to walk upon mine high places. To the chief singer on my stringed instruments.</t>
+  </si>
+  <si>
+    <t>For the fig tree shall not blossom: and there shall be no spring in the vines. The labour of the olive tree shall fail: and the fields shall yield no food: the flock shall be cut off from the fold, and there shall be no herd in the stalls.
+But I will rejoice in the Lord: and I will joy in God my Jesus.
+The Lord God is my strength: and he will make my feet like the feet of harts: and he the conqueror will lead me upon my high places singing psalms.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -670,9 +863,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,7 +890,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1004,22 +1206,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928EED2A-7406-45E8-AC37-383A2D1EBB5C}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.06640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -1036,7 +1238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1064,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,249 +1574,333 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35"/>
-      <c r="B35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36"/>
-      <c r="B36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37"/>
-      <c r="B37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38"/>
-      <c r="B38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39"/>
-      <c r="B39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40"/>
-      <c r="B40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43" s="6" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+      <c r="B45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+      <c r="B46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47"/>
+      <c r="B47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48"/>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49"/>
+      <c r="B49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+      <c r="B50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>112</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D50" t="s">
         <v>113</v>
       </c>
     </row>
